--- a/New_home_20241115.xlsx
+++ b/New_home_20241115.xlsx
@@ -34968,9 +34968,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home_20241115.xlsx
+++ b/New_home_20241115.xlsx
@@ -34969,8 +34969,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home_20241115.xlsx
+++ b/New_home_20241115.xlsx
@@ -34968,8 +34968,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
